--- a/description.xlsx
+++ b/description.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -52,6 +53,39 @@
   </si>
   <si>
     <t xml:space="preserve">своя база слов - догружается по кнопке</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lang1</t>
+  </si>
+  <si>
+    <t>lang2</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>words_id</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>дальше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить кнопу +1 слово на изучение в шаблон game</t>
   </si>
 </sst>
 </file>
@@ -677,4 +711,66 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/description.xlsx
+++ b/description.xlsx
@@ -716,11 +716,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="3">
       <c r="A3" t="s">
@@ -767,6 +767,90 @@
         <v>23</v>
       </c>
     </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,47 +55,53 @@
     <t xml:space="preserve">своя база слов - догружается по кнопке</t>
   </si>
   <si>
-    <t>words</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>lang1</t>
-  </si>
-  <si>
-    <t>lang2</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>words_id</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>дальше:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">добавить кнопу +1 слово на изучение в шаблон game</t>
+    <t xml:space="preserve">показывается слово выбранное с шансом из слов пользователя из базы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">показывается на рандомном языке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ниже показываются клетки для ввода (кол-во букв и пробелов в ответе известно)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить проверку на правильный/неправильный ответ + реакцию БД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить отображение статистики (слов изучено по категориям / всего)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить процент изучения слова которое выпало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить кнопки для того чтобы отмечать категории которые нужны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделать базовый html шаблон и к нему прикрутить остальные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделать навигацию на главной странице</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделать страницу админку со статистикой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделать скрипт для загрузки новых слов из эксель файла</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -120,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,6 +712,62 @@
         <v>12</v>
       </c>
     </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -716,139 +779,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="33" ht="14.25"/>
+    <row r="34" ht="14.25"/>
     <row r="35" ht="14.25"/>
     <row r="36" ht="14.25"/>
   </sheetData>

--- a/description.xlsx
+++ b/description.xlsx
@@ -67,6 +67,9 @@
     <t xml:space="preserve">добавить проверку на правильный/неправильный ответ + реакцию БД</t>
   </si>
   <si>
+    <t xml:space="preserve">сделать базовый html шаблон и к нему прикрутить остальные</t>
+  </si>
+  <si>
     <t xml:space="preserve">добавить отображение статистики (слов изучено по категориям / всего)</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">добавить кнопки для того чтобы отмечать категории которые нужны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сделать базовый html шаблон и к нему прикрутить остальные</t>
   </si>
   <si>
     <t xml:space="preserve">сделать навигацию на главной странице</t>
@@ -92,10 +92,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -126,10 +132,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,37 +741,37 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/description.xlsx
+++ b/description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -86,13 +86,106 @@
   </si>
   <si>
     <t xml:space="preserve">сделать скрипт для загрузки новых слов из эксель файла</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>CONVY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Войти, Регистрация</t>
+  </si>
+  <si>
+    <t>настройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User, Выйти</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всего слов в словаре</t>
+  </si>
+  <si>
+    <t>статистика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">процент прохождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по категориям</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить 1 слово</t>
+  </si>
+  <si>
+    <t>Слово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начать Игру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавить 10 слов</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент прохождения если авторизован</t>
+  </si>
+  <si>
+    <t>Структура(ввод)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прогресс-бар изучения слова</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вернуться в игру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">язык интерфейса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер БД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предпочитаемые категории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарегистрированных пользователей</t>
+  </si>
+  <si>
+    <t>оформление</t>
+  </si>
+  <si>
+    <t>Активность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузить слова из файла</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -111,6 +204,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -128,15 +239,209 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +949,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -774,6 +1079,327 @@
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="12"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="13"/>
+      <c r="G38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="12"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="13"/>
+      <c r="G39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="12"/>
+      <c r="B40"/>
+      <c r="C40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" s="13"/>
+      <c r="G40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" s="13"/>
+      <c r="M40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="12"/>
+      <c r="B41"/>
+      <c r="C41" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" s="13"/>
+      <c r="G41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41" s="13"/>
+      <c r="M41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="20"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="12"/>
+      <c r="B42"/>
+      <c r="C42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" s="13"/>
+      <c r="G42" s="18"/>
+      <c r="H42"/>
+      <c r="I42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" s="13"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="12"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="13"/>
+      <c r="G43" s="18"/>
+      <c r="H43"/>
+      <c r="I43" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43" s="13"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="20"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="27"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="12"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="12"/>
+      <c r="B50"/>
+      <c r="C50" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="H50"/>
+      <c r="I50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="12"/>
+      <c r="B51"/>
+      <c r="C51" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51"/>
+      <c r="I51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="12"/>
+      <c r="B52"/>
+      <c r="C52" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="H52"/>
+      <c r="I52" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="12"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="H53"/>
+      <c r="I53" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t xml:space="preserve">Загрузить слова из файла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;link href="https://cdn.jsdelivr.net/npm/bootstrap@5.1.3/dist/css/bootstrap.min.css" rel="stylesheet" integrity="sha384-1BmE4kWBq78iYhFldvKuhfTAU6auU8tT94WrHftjDbrCEXSU1oBoqyl2QvZ6jIW3" crossorigin="anonymous"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;script src="https://cdn.jsdelivr.net/npm/bootstrap@5.1.3/dist/js/bootstrap.bundle.min.js" integrity="sha384-ka7Sk0Gln4gmtz2MlQnikT1wXgYsOg+OMhuP+IlRH9sENBO0LRn5q+8nbTov4+1p" crossorigin="anonymous"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button type="submit" name="plus_one"&gt; Plus one random word&lt;/button&gt;</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
     </font>
     <font>
       <sz val="11.000000"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -223,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -375,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -397,6 +412,9 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,6 +428,9 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -432,6 +453,9 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -949,7 +973,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1070,7 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1087,7 +1111,7 @@
       <c r="I36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1116,176 +1140,178 @@
         <v>31</v>
       </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="13"/>
-      <c r="G38" s="14" t="s">
+      <c r="E38" s="14"/>
+      <c r="G38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="17" t="s">
+      <c r="N38" s="19"/>
+      <c r="O38" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" s="13"/>
-      <c r="G39" s="18" t="s">
+      <c r="E39" s="14"/>
+      <c r="G39" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="17" t="s">
+      <c r="N39" s="19"/>
+      <c r="O39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="20"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40"/>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D40"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="18" t="s">
+      <c r="E40" s="14"/>
+      <c r="G40" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H40"/>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="24" t="s">
         <v>38</v>
       </c>
       <c r="J40"/>
-      <c r="K40" s="13"/>
-      <c r="M40" s="17" t="s">
+      <c r="K40" s="14"/>
+      <c r="M40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="17" t="s">
+      <c r="N40" s="19"/>
+      <c r="O40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="20"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41"/>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="13"/>
-      <c r="G41" s="18" t="s">
+      <c r="E41" s="14"/>
+      <c r="G41" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H41"/>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="24" t="s">
         <v>41</v>
       </c>
       <c r="J41"/>
-      <c r="K41" s="13"/>
-      <c r="M41" s="17" t="s">
+      <c r="K41" s="14"/>
+      <c r="M41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="17" t="s">
+      <c r="N41" s="19"/>
+      <c r="O41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="20"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="22"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42"/>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D42"/>
-      <c r="E42" s="13"/>
-      <c r="G42" s="18"/>
+      <c r="E42" s="14"/>
+      <c r="G42" s="20"/>
       <c r="H42"/>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="24" t="s">
         <v>43</v>
       </c>
       <c r="J42"/>
-      <c r="K42" s="13"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="17" t="s">
+      <c r="K42" s="14"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="20"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="22"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43" s="13"/>
-      <c r="G43" s="18"/>
+      <c r="E43" s="14"/>
+      <c r="G43" s="20"/>
       <c r="H43"/>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="24" t="s">
         <v>44</v>
       </c>
       <c r="J43"/>
-      <c r="K43" s="13"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="17" t="s">
+      <c r="K43" s="14"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="20"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="27"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="31"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="34"/>
     </row>
     <row r="47" ht="14.25">
       <c r="C47" s="4" t="s">
@@ -1296,7 +1322,7 @@
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
@@ -1309,97 +1335,112 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="12" t="s">
         <v>27</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="K48" s="33"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="13"/>
-      <c r="G49" s="12"/>
+      <c r="E49" s="14"/>
+      <c r="G49" s="13"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" s="13"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50"/>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D50"/>
-      <c r="E50" s="13"/>
-      <c r="G50" s="12"/>
+      <c r="E50" s="14"/>
+      <c r="G50" s="13"/>
       <c r="H50"/>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J50"/>
-      <c r="K50" s="13"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51"/>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D51"/>
-      <c r="E51" s="13"/>
-      <c r="G51" s="12"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="13"/>
       <c r="H51"/>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J51"/>
-      <c r="K51" s="13"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52"/>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D52"/>
-      <c r="E52" s="13"/>
-      <c r="G52" s="12"/>
+      <c r="E52" s="14"/>
+      <c r="G52" s="13"/>
       <c r="H52"/>
-      <c r="I52" s="23" t="s">
+      <c r="I52" s="25" t="s">
         <v>53</v>
       </c>
       <c r="J52"/>
-      <c r="K52" s="13"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="13"/>
-      <c r="G53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="G53" s="13"/>
       <c r="H53"/>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="25" t="s">
         <v>54</v>
       </c>
       <c r="J53"/>
-      <c r="K53" s="13"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -76,10 +76,13 @@
     <t xml:space="preserve">добавить процент изучения слова которое выпало</t>
   </si>
   <si>
+    <t xml:space="preserve">сделать красивую форму ввода</t>
+  </si>
+  <si>
     <t xml:space="preserve">добавить кнопки для того чтобы отмечать категории которые нужны</t>
   </si>
   <si>
-    <t xml:space="preserve">сделать навигацию на главной странице</t>
+    <t xml:space="preserve">сделать навигацию на всех страницах</t>
   </si>
   <si>
     <t xml:space="preserve">сделать страницу админку со статистикой</t>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">сделать скрипт для загрузки новых слов из эксель файла</t>
   </si>
   <si>
+    <t xml:space="preserve">сделать кнопку с включением/выключением автосмены языка ввода</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -172,9 +178,6 @@
     <t xml:space="preserve">Зарегистрированных пользователей</t>
   </si>
   <si>
-    <t>оформление</t>
-  </si>
-  <si>
     <t>Активность</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;button type="submit" name="plus_one"&gt; Plus one random word&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random pick = 4</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -415,18 +421,12 @@
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="5" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,11 +438,7 @@
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -973,7 +969,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1075,17 +1071,17 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1104,342 +1100,301 @@
         <v>23</v>
       </c>
     </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="36" ht="14.25">
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="13"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="14"/>
-      <c r="G38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17" t="s">
+      <c r="A38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="G38" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="18" t="s">
-        <v>31</v>
+      <c r="N38" s="17"/>
+      <c r="O38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="13"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="22"/>
+      <c r="A39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="G39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="20"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="13"/>
-      <c r="B40"/>
-      <c r="C40" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40" s="24" t="s">
+      <c r="A40" s="12"/>
+      <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J40"/>
-      <c r="K40" s="14"/>
-      <c r="M40" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="22"/>
+      <c r="E40" s="13"/>
+      <c r="G40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="M40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="20"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="13"/>
-      <c r="B41"/>
-      <c r="C41" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="14"/>
-      <c r="G41" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41" s="24" t="s">
+      <c r="A41" s="12"/>
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J41"/>
-      <c r="K41" s="14"/>
-      <c r="M41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="22"/>
+      <c r="E41" s="13"/>
+      <c r="G41" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="M41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="20"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="13"/>
-      <c r="B42"/>
-      <c r="C42" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" s="14"/>
-      <c r="G42" s="20"/>
-      <c r="H42"/>
-      <c r="I42" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" s="14"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="22"/>
+      <c r="A42" s="12"/>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="G42" s="18"/>
+      <c r="I42" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="20"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="13"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="20"/>
-      <c r="H43"/>
-      <c r="I43" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" s="14"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="22"/>
+      <c r="A43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="G43" s="18"/>
+      <c r="I43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="20"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="34"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="25"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="30"/>
     </row>
     <row r="47" ht="14.25">
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="35" t="s">
-        <v>47</v>
+      <c r="A48" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="12" t="s">
-        <v>27</v>
+      <c r="I48" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="K48" s="36"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="13"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49" s="14"/>
+      <c r="A49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="K49" s="13"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="13"/>
-      <c r="B50"/>
-      <c r="C50" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50"/>
-      <c r="I50" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="C50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="I50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="13"/>
-      <c r="B51"/>
-      <c r="C51" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51" s="14"/>
-      <c r="G51" s="13"/>
-      <c r="H51"/>
-      <c r="I51" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="I51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="13"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="13"/>
-      <c r="B52"/>
-      <c r="C52" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52"/>
-      <c r="I52" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="C52" s="4"/>
+      <c r="E52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="I52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="13"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="13"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53"/>
-      <c r="I53" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="I53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1461,18 +1416,87 @@
   <sheetData>
     <row r="3"/>
     <row r="4"/>
-    <row r="8"/>
-    <row r="9"/>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
     <row r="16"/>
     <row r="17"/>
+    <row r="19" ht="14.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="22" ht="14.25"/>
     <row r="23" ht="14.25"/>
     <row r="24" ht="14.25"/>
     <row r="25" ht="14.25"/>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25"/>
+    <row r="28" ht="14.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" ht="14.25"/>
     <row r="33" ht="14.25"/>
     <row r="34" ht="14.25"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -193,7 +193,19 @@
     <t xml:space="preserve">&lt;button type="submit" name="plus_one"&gt; Plus one random word&lt;/button&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">random pick = 4</t>
+    <t>user_words(id)</t>
+  </si>
+  <si>
+    <t>word_chances</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -1413,90 +1425,102 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.00390625"/>
+  </cols>
   <sheetData>
     <row r="3"/>
     <row r="4"/>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
         <v>40</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>30</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25"/>
     <row r="16"/>
     <row r="17"/>
-    <row r="19" ht="14.25">
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="19" ht="14.25"/>
     <row r="22" ht="14.25"/>
     <row r="23" ht="14.25"/>
     <row r="24" ht="14.25"/>
     <row r="25" ht="14.25"/>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>75</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29">
-        <v>100</v>
-      </c>
-      <c r="B29">
-        <v>75</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
     <row r="30" ht="14.25"/>
     <row r="33" ht="14.25"/>
     <row r="34" ht="14.25"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">функция вылавливает рандомно слово для перевода</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">сделать красивую форму ввода</t>
   </si>
   <si>
-    <t xml:space="preserve">добавить кнопки для того чтобы отмечать категории которые нужны</t>
+    <t xml:space="preserve">добавить статистику категорий</t>
   </si>
   <si>
     <t xml:space="preserve">сделать навигацию на всех страницах</t>
@@ -148,9 +148,6 @@
     <t>Категория</t>
   </si>
   <si>
-    <t xml:space="preserve">Процент прохождения если авторизован</t>
-  </si>
-  <si>
     <t>Структура(ввод)</t>
   </si>
   <si>
@@ -182,15 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Загрузить слова из файла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;link href="https://cdn.jsdelivr.net/npm/bootstrap@5.1.3/dist/css/bootstrap.min.css" rel="stylesheet" integrity="sha384-1BmE4kWBq78iYhFldvKuhfTAU6auU8tT94WrHftjDbrCEXSU1oBoqyl2QvZ6jIW3" crossorigin="anonymous"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;script src="https://cdn.jsdelivr.net/npm/bootstrap@5.1.3/dist/js/bootstrap.bundle.min.js" integrity="sha384-ka7Sk0Gln4gmtz2MlQnikT1wXgYsOg+OMhuP+IlRH9sENBO0LRn5q+8nbTov4+1p" crossorigin="anonymous"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;button type="submit" name="plus_one"&gt; Plus one random word&lt;/button&gt;</t>
   </si>
   <si>
     <t>user_words(id)</t>
@@ -1098,7 +1086,7 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1255,13 +1243,11 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="12"/>
-      <c r="C42" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="E42" s="13"/>
       <c r="G42" s="18"/>
       <c r="I42" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42" s="13"/>
       <c r="M42" s="22"/>
@@ -1277,7 +1263,7 @@
       <c r="E43" s="13"/>
       <c r="G43" s="18"/>
       <c r="I43" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="13"/>
       <c r="M43" s="22"/>
@@ -1307,15 +1293,15 @@
     </row>
     <row r="47" ht="14.25">
       <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
@@ -1342,24 +1328,24 @@
     <row r="50" ht="14.25">
       <c r="A50" s="12"/>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="13"/>
       <c r="G50" s="12"/>
       <c r="I50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="13"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="12"/>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="13"/>
       <c r="G51" s="12"/>
       <c r="I51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K51" s="13"/>
     </row>
@@ -1369,7 +1355,7 @@
       <c r="E52" s="13"/>
       <c r="G52" s="12"/>
       <c r="I52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K52" s="13"/>
     </row>
@@ -1378,7 +1364,7 @@
       <c r="E53" s="13"/>
       <c r="G53" s="12"/>
       <c r="I53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53" s="13"/>
     </row>
@@ -1394,21 +1380,9 @@
       <c r="J54" s="24"/>
       <c r="K54" s="25"/>
     </row>
-    <row r="57" ht="14.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="57" ht="14.25"/>
+    <row r="58" ht="14.25"/>
+    <row r="61" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1433,7 +1407,7 @@
     <row r="4"/>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1459,7 +1433,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -1485,28 +1459,28 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" ht="14.25"/>
